--- a/medicine/Handicap/Conseiller_en_économie_sociale_et_familiale/Conseiller_en_économie_sociale_et_familiale.xlsx
+++ b/medicine/Handicap/Conseiller_en_économie_sociale_et_familiale/Conseiller_en_économie_sociale_et_familiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseiller_en_%C3%A9conomie_sociale_et_familiale</t>
+          <t>Conseiller_en_économie_sociale_et_familiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un conseiller en économie sociale et familiale (CESF) est, en France, un professionnel titulaire d'un diplôme d'État de « conseiller en économie sociale familiale » (DE CESF). Cette formation est ouverte aux étudiants niveau BAC+2 et pour les candidat(e)s ayant déjà obtenu un Brevet de technicien supérieur - Économie sociale et familiale (BTS ESF). Le D.E se prépare en un an et comprend 16 semaines de stage sur un site qualifiant. Il est notamment possible de préparer cette formation en IRTS ou par le CNAM en trois ans après le baccalauréat ou diplôme équivalent.
 En dépit des 10 000 professionnels qui exercent en France dans différentes structures, ce métier est moins connu du grand public que d'autres professions du champ social telles qu'éducateur spécialisé ou assistant de service social.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseiller_en_%C3%A9conomie_sociale_et_familiale</t>
+          <t>Conseiller_en_économie_sociale_et_familiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les CESF sont formés à l'application de 4 domaines de compétence
 Domaine de compétence 1 : Conseil et expertise à visée socio-éducative dans le domaine de la vie quotidienne. Validé par un mémoire.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conseiller_en_%C3%A9conomie_sociale_et_familiale</t>
+          <t>Conseiller_en_économie_sociale_et_familiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>La fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CESF est un travailleur social dont l'intervention consiste à aider et permettre le retour ou l'accès à l'autonomie pour différents publics (personnes ou familles rencontrant des difficultés d'ordre social ou financier, personnes âgées, handicapés, allocataires RSA, migrants...). Il mène ainsi un accompagnement social auprès de ces usagers, et peut mettre en place des projets en vue de proposer des services qui contribueront au développement des territoires.
 Le conseiller en économie sociale familiale (CESF) est un travailleur social qualifié dont le cœur de métier est fondé sur une expertise dans les domaines de la vie quotidienne : consommation, habitat, insertion sociale et professionnelle, alimentation- santé. 
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conseiller_en_%C3%A9conomie_sociale_et_familiale</t>
+          <t>Conseiller_en_économie_sociale_et_familiale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Champs d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diagnostic et accompagnement social (MASP)
 Budget familial, énergie
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conseiller_en_%C3%A9conomie_sociale_et_familiale</t>
+          <t>Conseiller_en_économie_sociale_et_familiale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Évolutions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de poursuivre le cursus vers une formation de niveau I ou II avec le diplôme d'État en Ingénierie Sociale (DEIS) oule certificat d'aptitude aux fonctions de directeur d'établissement social (CAFDES).
 Une formation particulière est également réalisable afin d'exercer comme mandataire judiciaire à la protection des majeurs, conseiller conjugal et familial  ou enseignant dans les matières liées au domaine social.
